--- a/Rata_Rata_Harga_Provinsi.xlsx
+++ b/Rata_Rata_Harga_Provinsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,785 +434,1170 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Nama Provinsi</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>HargaNum</t>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rata Rata Harga</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Papua Pegunungan </t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>66965.97468354431</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rp 66.965,97</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">Papua Pegunungan </t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>64412.90654205607</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rp 64.412,91</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Papua Tengah</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>45961.63957597173</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rp 45.961,64</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Papua Tengah </t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>45672.38410596026</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rp 45.672,38</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Papua Selatan </t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>44154.60992907801</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rp 44.154,61</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Papua</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>42787.84785615491</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rp 42.787,85</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Papua Barat</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>42320.98755186722</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Rp 42.320,99</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kalimantan Utara </t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>42086.79738562091</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rp 42.086,80</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Kalimantan Utara</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>41103.42776998597</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rp 41.103,43</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kalimantan Selatan </t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>40288.29714285714</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rp 40.288,30</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kalimantan Tengah </t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>40057.37037037037</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rp 40.057,37</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve"> Papua </t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>39915.21739130434</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rp 39.915,22</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Maluku Utara</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>39644.53739612189</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rp 39.644,54</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kalimantan Barat </t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>38943.30357142857</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Rp 38.943,30</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Kalimantan Tengah</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>38868.77762430939</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rp 38.868,78</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve"> Papua Barat </t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>38788.55696202532</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Rp 38.788,56</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve"> Papua Barat Daya </t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>38620.83850931677</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rp 38.620,84</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Kalimantan Barat</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>38184.35082872928</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Rp 38.184,35</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve"> Banten </t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>38125.16571428571</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rp 38.125,17</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Papua Barat Daya</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>38036.59450171822</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rp 38.036,59</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve"> Maluku Utara </t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>37757.2298136646</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rp 37.757,23</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Kepulauan Riau</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>37718.69113573407</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rp 37.718,69</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kalimantan Timur </t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>37632.36309523809</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rp 37.632,36</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Maluku</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>37618.64819944598</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rp 37.618,65</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sumatera Barat </t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>37056.6449704142</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rp 37.056,64</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Kalimantan Timur</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>37002.0428769018</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Rp 37.002,04</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sumatera Utara </t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>36706.18713450292</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rp 36.706,19</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Kepulauan Bangka Belitung</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>36676.17299578059</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rp 36.676,17</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve"> Jawa Tengah </t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>36321.54857142857</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Rp 36.321,55</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>DKI Jakarta</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>36304.21702127659</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rp 36.304,22</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve"> Jambi </t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>36197.81142857143</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rp 36.197,81</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve"> Aceh </t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>35977.92261904762</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rp 35.977,92</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Papua Selatan</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>35392.17886178862</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rp 35.392,18</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Kalimantan Selatan</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>35325.7075862069</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rp 35.325,71</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Papua Pegunungan</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>34998.16666666666</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rp 34.998,17</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve"> Maluku </t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>34898.47204968944</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Rp 34.898,47</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve"> DKI Jakarta </t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>34775.55629139073</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rp 34.775,56</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sulawesi Selatan </t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>34680.50581395349</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rp 34.680,51</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Nusa Tenggara Timur</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>34615.18395573997</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rp 34.615,18</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Riau</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>34472.35448275862</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Rp 34.472,35</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve"> Jawa Barat </t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>34449.95266272189</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Rp 34.449,95</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Aceh</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>34427.77637130802</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Rp 34.427,78</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t xml:space="preserve"> Riau </t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>34247.2606060606</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Rp 34.247,26</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Sulawesi Utara</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>34196.83933518006</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Rp 34.196,84</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kepulauan Bangka Belitung </t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>34196.31756756757</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Rp 34.196,32</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Gorontalo</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>34083.83795620438</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Rp 34.083,84</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Sulawesi Tenggara</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>33916.30567081604</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Rp 33.916,31</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Sulawesi Tengah</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>33713.96061884669</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rp 33.713,96</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Sumatera Barat</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>33609.56606397775</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Rp 33.609,57</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Banten</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>33505.56965517241</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rp 33.505,57</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Bengkulu</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>33277.47435897436</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rp 33.277,47</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Jawa Barat</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>33275.48756906077</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rp 33.275,49</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Sumatera Utara</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>33240.37241379311</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rp 33.240,37</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sulawesi Tenggara </t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>33177</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rp 33.177,00</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve"> Nusa Tenggara Timur </t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>33098.24223602485</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rp 33.098,24</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve"> Nusa Tenggara Barat </t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>32513.0243902439</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rp 32.513,02</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve"> Kepulauan Riau </t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>32467.56493506494</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rp 32.467,56</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Jambi</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>32458.71349095967</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rp 32.458,71</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Sumatera Selatan</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>32335.6459197787</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rp 32.335,65</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Nusa Tenggara Barat</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>32315.41217150761</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rp 32.315,41</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t xml:space="preserve"> Bengkulu </t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>32187.92617449664</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rp 32.187,93</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sulawesi Utara </t>
         </is>
       </c>
-      <c r="B63" t="n">
-        <v>32187.06211180124</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rp 32.187,06</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t xml:space="preserve"> Gorontalo </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>31787.42176870748</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rp 31.787,42</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sulawesi Tengah </t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>31782.40625</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rp 31.782,41</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Lampung</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>31685.26970954357</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rp 31.685,27</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Jawa Tengah</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>31234.23034482759</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rp 31.234,23</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>DI Yogyakarta</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>31114.0857538036</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rp 31.114,09</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Sulawesi Barat</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>30723.86445366528</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rp 30.723,86</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Bali</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>30388.80636237897</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rp 30.388,81</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Sulawesi Selatan</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>30017.06344827586</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rp 30.017,06</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sulawesi Barat </t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>29676.43125</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rp 29.676,43</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Jawa Timur</t>
         </is>
       </c>
-      <c r="B73" t="n">
-        <v>29672.78699861687</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Rp 29.672,79</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve"> Jawa Timur </t>
         </is>
       </c>
-      <c r="B74" t="n">
-        <v>29568.08484848485</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Rp 29.568,08</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t xml:space="preserve"> D.I Yogyakarta </t>
         </is>
       </c>
-      <c r="B75" t="n">
-        <v>29216.14906832298</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Rp 29.216,15</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sumatera Selatan </t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>29016.27329192547</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rp 29.016,27</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lampung </t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>28954.04347826087</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rp 28.954,04</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t xml:space="preserve"> Bali </t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>28424.80745341615</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Rp 28.424,81</t>
+        </is>
       </c>
     </row>
   </sheetData>
